--- a/Pseudo Code/getInjured.xlsx
+++ b/Pseudo Code/getInjured.xlsx
@@ -65,18 +65,9 @@
     <t>begin if</t>
   </si>
   <si>
-    <t>then setInjured(true boolean, playerID int)</t>
-  </si>
-  <si>
-    <t>print "your player is now injured and can not play any matches until he is healthy again"</t>
-  </si>
-  <si>
     <t>else</t>
   </si>
   <si>
-    <t>then setHealth(health int, playerID int)</t>
-  </si>
-  <si>
     <t>end if</t>
   </si>
   <si>
@@ -86,7 +77,16 @@
     <t>PLAYER_INJURY_LEVEL int</t>
   </si>
   <si>
-    <t>health &lt;= PLAYER_INJURY_LEVEL</t>
+    <t xml:space="preserve">   health &lt;= PLAYER_INJURY_LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   then setInjured(true boolean, playerID int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   print "your player is now injured and can not play any matches until he is healthy again"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   then setHealth(health int, playerID int)</t>
   </si>
 </sst>
 </file>
@@ -170,9 +170,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -181,6 +178,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,267 +474,267 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="6" t="s">
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="6" t="s">
+    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="6" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
+      <c r="A50" s="3"/>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
+      <c r="A54" s="3"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
